--- a/data/input/new092525.xlsx
+++ b/data/input/new092525.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,21 @@
           <t>Price</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Brand</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Image URLs</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -466,6 +481,9 @@
           <t>17.99</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -483,6 +501,9 @@
           <t>21.99</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -496,6 +517,9 @@
           <t>10.99</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -513,6 +537,9 @@
           <t>10.99</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -526,6 +553,9 @@
           <t>15.99</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -539,6 +569,9 @@
           <t>15.99</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -556,6 +589,9 @@
           <t>2.99</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -573,6 +609,9 @@
           <t>7.99</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -590,6 +629,9 @@
           <t>6.99</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -607,6 +649,9 @@
           <t>19.99</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
